--- a/Source/Data/Persentase Rumah Tangga yang Pernah Mengakses Internet dalam 3 Bulan Terakhir Menurut Media Akses.xlsx
+++ b/Source/Data/Persentase Rumah Tangga yang Pernah Mengakses Internet dalam 3 Bulan Terakhir Menurut Media Akses.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lydia.natalia\Desktop\INSTALASI DA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lydia.natalia\Desktop\INSTALASI DA\Git Project\Source\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EC56F4-8165-46A9-BBFC-4475BC63817E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA44991-F4DD-4017-AE67-3E8A4915B1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Media Mengakses Internet</t>
-  </si>
-  <si>
-    <t>Persentase Rumah Tangga yang Pernah Mengakses Internet dalam 3 Bulan Terakhir Menurut Media Akses</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>2015</t>
   </si>
@@ -85,15 +79,6 @@
     <t>0.69</t>
   </si>
   <si>
-    <t>Sumber: BPS, Survei Sosial Ekonomi Nasional (Susenas). Catatan: - Pembagi adalah total rumah tangga yang mengakses internet - Nilai untuk tahun 2009 dan 2018 tidak tersedia</t>
-  </si>
-  <si>
-    <t>Source Url: https://www.bps.go.id/indicator/2/402/2/persentase-rumah-tangga-yang-pernah-mengakses-internet-dalam-3-bulan-terakhir-menurut-media-akses.html</t>
-  </si>
-  <si>
-    <t>Access Time: October 12, 2022, 5:03 am</t>
-  </si>
-  <si>
     <t>2019</t>
   </si>
   <si>
@@ -137,6 +122,9 @@
   </si>
   <si>
     <t>0.24</t>
+  </si>
+  <si>
+    <t>Media</t>
   </si>
 </sst>
 </file>
@@ -180,14 +168,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -528,186 +510,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" activeCellId="1" sqref="A1:G2 J2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="F3" t="s">
         <v>26</v>
       </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F4" t="s">
         <v>29</v>
       </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="F5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:D10 A1:B1" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>